--- a/finalists/w_sum.xlsx
+++ b/finalists/w_sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseysample/Documents/GitHub/Senior-Thesis/finalists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9F463F6C-ECC1-C345-B8D7-248F8D82EE52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C5C841FE-AF29-F74E-991D-9330BD9B3FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19800" windowHeight="14600"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19800" windowHeight="14600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="w_sum" sheetId="2" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1874,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2018,6 +2018,14 @@
         <f t="shared" ref="P5:P8" si="6">COUNT(I5:L5)</f>
         <v>4</v>
       </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q8" si="7">P5-O5</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R8" si="8">Q5/(P5-1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -2059,6 +2067,14 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="7" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -2100,6 +2116,14 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="8" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -2140,6 +2164,14 @@
       <c r="P8">
         <f t="shared" si="6"/>
         <v>4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -2152,15 +2184,15 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:L10" si="7">COUNTIF(J4:J8,"&lt;&gt;0")</f>
+        <f t="shared" ref="J10:L10" si="9">COUNTIF(J4:J8,"&lt;&gt;0")</f>
         <v>3</v>
       </c>
       <c r="K10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="L10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -2173,15 +2205,15 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:L11" si="8">COUNT(J4:J8)</f>
+        <f t="shared" ref="J11:L11" si="10">COUNT(J4:J8)</f>
         <v>5</v>
       </c>
       <c r="K11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -2192,15 +2224,15 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:L12" si="9">J10-J11</f>
+        <f t="shared" ref="J12:L12" si="11">J10-J11</f>
         <v>-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
     </row>
@@ -2247,15 +2279,15 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:L14" si="10">ABS(D14/1)</f>
+        <f t="shared" ref="J14:L14" si="12">ABS(D14/1)</f>
         <v>0.5</v>
       </c>
       <c r="K14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N14">
@@ -2280,19 +2312,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I18" si="11">ABS(C15/1)</f>
+        <f t="shared" ref="I15:I18" si="13">ABS(C15/1)</f>
         <v>0.5</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J18" si="12">ABS(D15/1)</f>
+        <f t="shared" ref="J15:J18" si="14">ABS(D15/1)</f>
         <v>1</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15:K18" si="13">ABS(E15/1)</f>
+        <f t="shared" ref="K15:K18" si="15">ABS(E15/1)</f>
         <v>0.5</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L18" si="14">ABS(F15/1)</f>
+        <f t="shared" ref="L15:L18" si="16">ABS(F15/1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2313,19 +2345,19 @@
         <v>0.5</v>
       </c>
       <c r="I16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2346,19 +2378,19 @@
         <v>-0.5</v>
       </c>
       <c r="I17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="L17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2379,19 +2411,19 @@
         <v>-0.5</v>
       </c>
       <c r="I18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="J18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="K18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>

--- a/finalists/w_sum.xlsx
+++ b/finalists/w_sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseysample/Documents/GitHub/Senior-Thesis/finalists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3A3810E8-5E5F-3747-B4D6-1370870E4E7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{783E4B0F-80CF-9847-8A82-912B689D38D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19800" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20020" windowHeight="14640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="w_sum" sheetId="2" r:id="rId1"/>
@@ -1329,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="L2" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -1610,20 +1610,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="C18 C7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1665,8 +1665,11 @@
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1688,8 +1691,11 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1711,8 +1717,11 @@
       <c r="G5">
         <v>2</v>
       </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1760,16 +1769,45 @@
         <v>8</v>
       </c>
       <c r="H7" s="1">
-        <f>C7+D7</f>
+        <f>D7+C7</f>
         <v>216</v>
       </c>
+      <c r="I7" s="1">
+        <f>H7/H8</f>
+        <v>0.29189189189189191</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f>C7/$H$8</f>
+        <v>5.5405405405405408E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:G8" si="1">D7/$H$8</f>
+        <v>0.23648648648648649</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.9729729729729731E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.5675675675675677E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.0810810810810811E-2</v>
+      </c>
+      <c r="H8">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1811,8 +1849,11 @@
       <c r="G14">
         <v>2</v>
       </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1834,8 +1875,11 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="J15">
+        <v>26</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1857,8 +1901,11 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1880,8 +1927,16 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <f>D18+C18</f>
+        <v>216</v>
+      </c>
+      <c r="I17">
+        <f>H17/H18</f>
+        <v>0.41538461538461541</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1890,24 +1945,45 @@
         <v>28</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:G18" si="1">SUM(D14:D17)</f>
+        <f t="shared" ref="D18:G18" si="2">SUM(D14:D17)</f>
         <v>188</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H18" s="1">
-        <f>D18+C18</f>
-        <v>216</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f>C18/$H$18</f>
+        <v>5.3846153846153849E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:G19" si="3">D18/$H$18</f>
+        <v>0.36153846153846153</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>2.1153846153846155E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>3.2692307692307694E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>9.6153846153846159E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK117"/>
   <sheetViews>
-    <sheetView topLeftCell="BB1" workbookViewId="0">
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
       <selection activeCell="BE63" sqref="BE63"/>
     </sheetView>
   </sheetViews>
@@ -25750,7 +25826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE111"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="BC57" sqref="B57:BC111"/>
     </sheetView>
   </sheetViews>
